--- a/Data S1_new.xlsx
+++ b/Data S1_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tara\GLab Dropbox\GLab_team\Projects\2020_SARSCOV2\Saliva_Sequencing_Paper\2021-06 submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Fauver\Documents\GitHub\Saliva_Sequencing_Manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8940FA04-1212-49EF-A2B8-FE164298CD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3BC0A6-DB44-4878-9886-8295FBAF5FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5056BBDD-4315-499F-A060-95A447A83458}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5056BBDD-4315-499F-A060-95A447A83458}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1A and 1C" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="492">
   <si>
     <t>Yale-121</t>
   </si>
@@ -1485,28 +1485,10 @@
     <t>Original Readcount</t>
   </si>
   <si>
-    <t>Connecticut State Department of Public Health</t>
-  </si>
-  <si>
-    <t>Yale Clinical Virology Laboratory</t>
-  </si>
-  <si>
-    <t>Yale COVID-19 Biorepository</t>
-  </si>
-  <si>
-    <t>Connecticut Department of Health</t>
-  </si>
-  <si>
-    <t>Yale Pathology Lab</t>
-  </si>
-  <si>
     <t>Grubaugh Lab - Yale School of Public Health</t>
   </si>
   <si>
     <t>Joseph Fauver et al</t>
-  </si>
-  <si>
-    <t>Originating Lab</t>
   </si>
   <si>
     <t>Submitting Lab</t>
@@ -2033,27 +2015,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969F599D-A37D-4775-AC3B-EA92C049CC83}">
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="48" style="4" customWidth="1"/>
-    <col min="8" max="8" width="41.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="11.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="41.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.08984375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -2073,16 +2054,13 @@
         <v>480</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>111</v>
       </c>
@@ -2105,13 +2083,10 @@
         <v>482</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>112</v>
       </c>
@@ -2134,13 +2109,10 @@
         <v>482</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>113</v>
       </c>
@@ -2160,16 +2132,13 @@
         <v>0.97217670467845996</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>114</v>
       </c>
@@ -2189,16 +2158,13 @@
         <v>0.97077216332809402</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>115</v>
       </c>
@@ -2218,16 +2184,13 @@
         <v>0.92361970370865798</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>116</v>
       </c>
@@ -2247,16 +2210,13 @@
         <v>0.974350399625456</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>117</v>
       </c>
@@ -2276,16 +2236,13 @@
         <v>0.93997257800220702</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>118</v>
       </c>
@@ -2305,16 +2262,13 @@
         <v>0.96819717085242296</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>119</v>
       </c>
@@ -2334,16 +2288,13 @@
         <v>0.97806240176570902</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>120</v>
       </c>
@@ -2363,16 +2314,13 @@
         <v>0.98608835233922998</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>121</v>
       </c>
@@ -2392,16 +2340,13 @@
         <v>0.98605491087850705</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
@@ -2421,16 +2366,13 @@
         <v>0.97351436310738004</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>123</v>
       </c>
@@ -2450,16 +2392,13 @@
         <v>0.95829849847841397</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>124</v>
       </c>
@@ -2479,16 +2418,13 @@
         <v>0.95211182824465801</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>125</v>
       </c>
@@ -2508,16 +2444,13 @@
         <v>0.97802896030498598</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>126</v>
       </c>
@@ -2537,16 +2470,13 @@
         <v>0.97766110423703301</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>127</v>
       </c>
@@ -2566,16 +2496,13 @@
         <v>0.97766110423703301</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>128</v>
       </c>
@@ -2595,16 +2522,13 @@
         <v>0.97802896030498598</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>129</v>
       </c>
@@ -2624,16 +2548,13 @@
         <v>0.96809684647025396</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>130</v>
       </c>
@@ -2653,16 +2574,13 @@
         <v>0.97796207738354002</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>131</v>
       </c>
@@ -2682,16 +2600,13 @@
         <v>0.97799551884426295</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>132</v>
       </c>
@@ -2711,16 +2626,13 @@
         <v>0.97776142861920201</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
@@ -2740,16 +2652,13 @@
         <v>0.97799551884426295</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>134</v>
       </c>
@@ -2769,16 +2678,13 @@
         <v>0.97538708490786896</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
@@ -2798,16 +2704,13 @@
         <v>0.97802896030498598</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>136</v>
       </c>
@@ -2827,16 +2730,13 @@
         <v>0.89904023007724998</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>137</v>
       </c>
@@ -2856,16 +2756,13 @@
         <v>0.96809684647025396</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>138</v>
       </c>
@@ -2885,16 +2782,13 @@
         <v>0.96675918804133398</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>139</v>
       </c>
@@ -2914,16 +2808,13 @@
         <v>0.968130287930977</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>140</v>
       </c>
@@ -2943,16 +2834,13 @@
         <v>0.98608835233922998</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>141</v>
       </c>
@@ -2972,16 +2860,13 @@
         <v>0.96779587332374695</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>142</v>
       </c>
@@ -3001,16 +2886,13 @@
         <v>0.98608835233922998</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>143</v>
       </c>
@@ -3030,16 +2912,13 @@
         <v>0.97806240176570902</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>144</v>
       </c>
@@ -3059,16 +2938,13 @@
         <v>0.92281710865130595</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>145</v>
       </c>
@@ -3088,16 +2964,13 @@
         <v>0.94488847272848897</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>146</v>
       </c>
@@ -3117,16 +2990,13 @@
         <v>0.96458549309433805</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>147</v>
       </c>
@@ -3146,16 +3016,13 @@
         <v>0.94124335350968102</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>148</v>
       </c>
@@ -3175,16 +3042,13 @@
         <v>0.968130287930977</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>18</v>
       </c>
@@ -3204,16 +3068,13 @@
         <v>0.95893388623215003</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>16</v>
       </c>
@@ -3233,16 +3094,13 @@
         <v>0.94017322676654502</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>149</v>
       </c>
@@ -3262,16 +3120,13 @@
         <v>0.90134769086713695</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
@@ -3291,16 +3146,13 @@
         <v>0.96799652208808495</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>150</v>
       </c>
@@ -3320,16 +3172,13 @@
         <v>0.983680567167174</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>151</v>
       </c>
@@ -3349,16 +3198,13 @@
         <v>0.94294886800655398</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>152</v>
       </c>
@@ -3378,16 +3224,13 @@
         <v>0.968130287930977</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>153</v>
       </c>
@@ -3407,16 +3250,13 @@
         <v>0.95869979600708899</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
@@ -3436,16 +3276,13 @@
         <v>0.95411831588803797</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>154</v>
       </c>
@@ -3465,16 +3302,13 @@
         <v>0.95816473263552204</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>155</v>
       </c>
@@ -3494,16 +3328,13 @@
         <v>0.968130287930977</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>10</v>
       </c>
@@ -3523,16 +3354,13 @@
         <v>0.96331471758686404</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>156</v>
       </c>
@@ -3552,16 +3380,13 @@
         <v>0.97615623850449795</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>157</v>
       </c>
@@ -3581,16 +3406,13 @@
         <v>0.95916797645721197</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>158</v>
       </c>
@@ -3610,16 +3432,13 @@
         <v>0.98622211818212202</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>159</v>
       </c>
@@ -3639,16 +3458,13 @@
         <v>0.926261579105775</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -3668,16 +3484,13 @@
         <v>0.98605491087850705</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>160</v>
       </c>
@@ -3697,16 +3510,13 @@
         <v>0.80754439353911001</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>161</v>
       </c>
@@ -3726,16 +3536,13 @@
         <v>0.99588670033106996</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>162</v>
       </c>
@@ -3755,16 +3562,13 @@
         <v>0.97598903120088298</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>163</v>
       </c>
@@ -3784,16 +3588,13 @@
         <v>0.968130287930977</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>164</v>
       </c>
@@ -3813,16 +3614,13 @@
         <v>0.91562719459585995</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>165</v>
       </c>
@@ -3842,16 +3640,13 @@
         <v>0.97598903120088298</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>166</v>
       </c>
@@ -3871,16 +3666,13 @@
         <v>0.87586529779620803</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>167</v>
       </c>
@@ -3900,16 +3692,13 @@
         <v>0.92298431595492103</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>79</v>
       </c>
@@ -3929,16 +3718,13 @@
         <v>0.98605491087850705</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>168</v>
       </c>
@@ -3958,16 +3744,13 @@
         <v>0.98608835233922998</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>169</v>
       </c>
@@ -3987,16 +3770,13 @@
         <v>0.92893689596361595</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>170</v>
       </c>
@@ -4021,11 +3801,8 @@
       <c r="H68" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>171</v>
       </c>
@@ -4045,16 +3822,13 @@
         <v>0.97598903120088298</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>172</v>
       </c>
@@ -4074,16 +3848,13 @@
         <v>0.96374945657626299</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>173</v>
       </c>
@@ -4103,16 +3874,13 @@
         <v>0.95645921813864798</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>174</v>
       </c>
@@ -4137,11 +3905,8 @@
       <c r="H72" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I72" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>175</v>
       </c>
@@ -4161,16 +3926,13 @@
         <v>0.98317894525632898</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>6</v>
       </c>
@@ -4190,16 +3952,13 @@
         <v>0.89606394007290202</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>176</v>
       </c>
@@ -4224,11 +3983,8 @@
       <c r="H75" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I75" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>177</v>
       </c>
@@ -4248,16 +4004,13 @@
         <v>0.97916596996956795</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>178</v>
       </c>
@@ -4277,16 +4030,13 @@
         <v>0.98548640604621596</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>179</v>
       </c>
@@ -4306,16 +4056,13 @@
         <v>0.90271879075677997</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>180</v>
       </c>
@@ -4335,16 +4082,13 @@
         <v>0.94421964351402898</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
@@ -4369,11 +4113,8 @@
       <c r="H80" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>181</v>
       </c>
@@ -4393,16 +4134,13 @@
         <v>0.95609136207069501</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>182</v>
       </c>
@@ -4422,16 +4160,13 @@
         <v>0.97595558974015995</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>183</v>
       </c>
@@ -4451,16 +4186,13 @@
         <v>0.995920141791793</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>184</v>
       </c>
@@ -4480,16 +4212,13 @@
         <v>0.95923485937865804</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>185</v>
       </c>
@@ -4509,16 +4238,13 @@
         <v>0.995920141791793</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>186</v>
       </c>
@@ -4538,16 +4264,13 @@
         <v>0.995920141791793</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>187</v>
       </c>
@@ -4567,16 +4290,13 @@
         <v>0.91549342875296802</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>188</v>
       </c>
@@ -4596,16 +4316,13 @@
         <v>0.98605491087850705</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>189</v>
       </c>
@@ -4625,16 +4342,13 @@
         <v>0.995920141791793</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>190</v>
       </c>
@@ -4654,16 +4368,13 @@
         <v>0.91960672842189795</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>2</v>
       </c>
@@ -4683,16 +4394,13 @@
         <v>0.97615623850449795</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>191</v>
       </c>
@@ -4712,16 +4420,13 @@
         <v>0.98605491087850705</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>192</v>
       </c>
@@ -4741,16 +4446,13 @@
         <v>0.89827107648062099</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>193</v>
       </c>
@@ -4770,16 +4472,13 @@
         <v>0.98418218907801902</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>194</v>
       </c>
@@ -4799,16 +4498,13 @@
         <v>0.94428652643547495</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>195</v>
       </c>
@@ -4828,16 +4524,13 @@
         <v>0.97806240176570902</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>196</v>
       </c>
@@ -4857,16 +4550,13 @@
         <v>0.93890245125907101</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>197</v>
       </c>
@@ -4891,11 +4581,8 @@
       <c r="H98" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I98" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>198</v>
       </c>
@@ -4915,16 +4602,13 @@
         <v>0.98421563053874195</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>0</v>
       </c>
@@ -4944,16 +4628,13 @@
         <v>0.98608835233922998</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>199</v>
       </c>
@@ -4978,11 +4659,8 @@
       <c r="H101" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I101" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>200</v>
       </c>
@@ -5002,16 +4680,13 @@
         <v>0.968130287930977</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>201</v>
       </c>
@@ -5031,16 +4706,13 @@
         <v>0.93020767147108996</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>4</v>
       </c>
@@ -5060,16 +4732,13 @@
         <v>0.91773400662140903</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>202</v>
       </c>
@@ -5094,11 +4763,8 @@
       <c r="H105" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I105" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>203</v>
       </c>
@@ -5118,16 +4784,13 @@
         <v>0.95375045982008499</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>81</v>
       </c>
@@ -5147,16 +4810,13 @@
         <v>0.902651907835334</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>204</v>
       </c>
@@ -5176,16 +4836,13 @@
         <v>0.97806240176570902</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>205</v>
       </c>
@@ -5205,16 +4862,13 @@
         <v>0.93983881215931497</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>206</v>
       </c>
@@ -5234,16 +4888,13 @@
         <v>0.88375748252683695</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I110" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>207</v>
       </c>
@@ -5263,16 +4914,13 @@
         <v>0.929371634953015</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>208</v>
       </c>
@@ -5292,16 +4940,13 @@
         <v>0.968130287930977</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I112" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>209</v>
       </c>
@@ -5326,11 +4971,8 @@
       <c r="H113" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I113" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>210</v>
       </c>
@@ -5350,16 +4992,13 @@
         <v>0.87887502926127803</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>211</v>
       </c>
@@ -5379,16 +5018,13 @@
         <v>0.99013476908671405</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>212</v>
       </c>
@@ -5411,13 +5047,10 @@
         <v>482</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>213</v>
       </c>
@@ -5440,13 +5073,10 @@
         <v>482</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>214</v>
       </c>
@@ -5469,13 +5099,10 @@
         <v>482</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>215</v>
       </c>
@@ -5498,13 +5125,10 @@
         <v>482</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>216</v>
       </c>
@@ -5527,13 +5151,10 @@
         <v>482</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>217</v>
       </c>
@@ -5556,13 +5177,10 @@
         <v>482</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>218</v>
       </c>
@@ -5585,13 +5203,10 @@
         <v>482</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>219</v>
       </c>
@@ -5614,13 +5229,10 @@
         <v>482</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>220</v>
       </c>
@@ -5643,13 +5255,10 @@
         <v>482</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>221</v>
       </c>
@@ -5672,13 +5281,10 @@
         <v>482</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>222</v>
       </c>
@@ -5698,16 +5304,13 @@
         <v>0.99979935123566199</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>223</v>
       </c>
@@ -5727,16 +5330,13 @@
         <v>0.97822960906932399</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>224</v>
       </c>
@@ -5756,16 +5356,13 @@
         <v>0.99010132762599101</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>225</v>
       </c>
@@ -5785,16 +5382,13 @@
         <v>0.94532321171788802</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>226</v>
       </c>
@@ -5814,16 +5408,13 @@
         <v>0.90679864896498696</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>227</v>
       </c>
@@ -5848,11 +5439,8 @@
       <c r="H131" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I131" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>228</v>
       </c>
@@ -5877,11 +5465,8 @@
       <c r="H132" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I132" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>229</v>
       </c>
@@ -5901,16 +5486,13 @@
         <v>0.94197906564558698</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I133" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>230</v>
       </c>
@@ -5930,16 +5512,13 @@
         <v>0.90760124402233899</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>231</v>
       </c>
@@ -5959,16 +5538,13 @@
         <v>0.95913453499648904</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>232</v>
       </c>
@@ -5988,16 +5564,13 @@
         <v>0.95819817409624397</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I136" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>233</v>
       </c>
@@ -6017,16 +5590,13 @@
         <v>0.94926930408320198</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>234</v>
       </c>
@@ -6051,11 +5621,8 @@
       <c r="H138" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I138" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>235</v>
       </c>
@@ -6080,11 +5647,8 @@
       <c r="H139" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I139" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>236</v>
       </c>
@@ -6104,16 +5668,13 @@
         <v>0.950941377119353</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I140" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>237</v>
       </c>
@@ -6133,16 +5694,13 @@
         <v>0.95813129117479801</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>238</v>
       </c>
@@ -6162,16 +5720,13 @@
         <v>0.95823161555696801</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>239</v>
       </c>
@@ -6191,16 +5746,13 @@
         <v>0.95823161555696801</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>240</v>
       </c>
@@ -6220,16 +5772,13 @@
         <v>0.95823161555696801</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>241</v>
       </c>
@@ -6249,16 +5798,13 @@
         <v>0.96796308062736203</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>242</v>
       </c>
@@ -6278,16 +5824,13 @@
         <v>0.93716349530147502</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I146" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>243</v>
       </c>
@@ -6307,16 +5850,13 @@
         <v>0.94930274554392502</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>244</v>
       </c>
@@ -6336,16 +5876,13 @@
         <v>0.95903421061432004</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I148" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>245</v>
       </c>
@@ -6365,16 +5902,13 @@
         <v>0.95816473263552204</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I149" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>246</v>
       </c>
@@ -6399,11 +5933,8 @@
       <c r="H150" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I150" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>247</v>
       </c>
@@ -6428,11 +5959,8 @@
       <c r="H151" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I151" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>248</v>
       </c>
@@ -6452,16 +5980,13 @@
         <v>0.91338661672741905</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>249</v>
       </c>
@@ -6481,16 +6006,13 @@
         <v>0.88583085309166298</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I153" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>250</v>
       </c>
@@ -6515,11 +6037,8 @@
       <c r="H154" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I154" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>251</v>
       </c>
@@ -6544,11 +6063,8 @@
       <c r="H155" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I155" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>252</v>
       </c>
@@ -6573,11 +6089,8 @@
       <c r="H156" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I156" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>253</v>
       </c>
@@ -6597,16 +6110,13 @@
         <v>0.87245426880246102</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I157" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>254</v>
       </c>
@@ -6626,16 +6136,13 @@
         <v>0.84202253954452699</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I158" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>255</v>
       </c>
@@ -6655,16 +6162,13 @@
         <v>0.95819817409624397</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>256</v>
       </c>
@@ -6684,16 +6188,13 @@
         <v>0.93876868541617897</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>257</v>
       </c>
@@ -6713,16 +6214,13 @@
         <v>0.97495234591847002</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>258</v>
       </c>
@@ -6742,16 +6240,13 @@
         <v>0.95816473263552204</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>259</v>
       </c>
@@ -6771,16 +6266,13 @@
         <v>0.95906765207504296</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>260</v>
       </c>
@@ -6800,16 +6292,13 @@
         <v>0.96632444905193504</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>261</v>
       </c>
@@ -6829,16 +6318,13 @@
         <v>0.95913453499648904</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>262</v>
       </c>
@@ -6858,16 +6344,13 @@
         <v>0.95916797645721197</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>263</v>
       </c>
@@ -6887,16 +6370,13 @@
         <v>0.96712704410928696</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>264</v>
       </c>
@@ -6921,11 +6401,8 @@
       <c r="H168" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I168" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>265</v>
       </c>
@@ -6945,16 +6422,13 @@
         <v>0.98006888940908898</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>266</v>
       </c>
@@ -6974,16 +6448,13 @@
         <v>0.97214326321773703</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>267</v>
       </c>
@@ -7003,16 +6474,13 @@
         <v>0.96331471758686404</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I171" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>268</v>
       </c>
@@ -7032,16 +6500,13 @@
         <v>0.95378390128080803</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>269</v>
       </c>
@@ -7061,16 +6526,13 @@
         <v>0.97204293883556803</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>270</v>
       </c>
@@ -7090,16 +6552,13 @@
         <v>0.97217670467845996</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I174" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>271</v>
       </c>
@@ -7119,16 +6578,13 @@
         <v>0.99000100324382201</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I175" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>272</v>
       </c>
@@ -7148,16 +6604,13 @@
         <v>0.850483229107447</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>273</v>
       </c>
@@ -7177,16 +6630,13 @@
         <v>0.95341604521285495</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I177" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>274</v>
       </c>
@@ -7206,16 +6656,13 @@
         <v>0.83827709594355104</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>275</v>
       </c>
@@ -7235,16 +6682,13 @@
         <v>0.87389225161355</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>276</v>
       </c>
@@ -7264,16 +6708,13 @@
         <v>0.868942915426546</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>277</v>
       </c>
@@ -7293,16 +6734,13 @@
         <v>0.95425208173093001</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>278</v>
       </c>
@@ -7322,16 +6760,13 @@
         <v>0.95013878206199998</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I182" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>279</v>
       </c>
@@ -7351,16 +6786,13 @@
         <v>0.88793766511721195</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I183" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>280</v>
       </c>
@@ -7385,11 +6817,8 @@
       <c r="H184" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I184" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>281</v>
       </c>
@@ -7409,16 +6838,13 @@
         <v>0.84894492191418902</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I185" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>282</v>
       </c>
@@ -7438,16 +6864,13 @@
         <v>0.931411564057118</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I186" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>283</v>
       </c>
@@ -7467,16 +6890,13 @@
         <v>0.92268334280841402</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I187" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>284</v>
       </c>
@@ -7501,11 +6921,8 @@
       <c r="H188" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I188" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>285</v>
       </c>
@@ -7525,16 +6942,13 @@
         <v>0.82373006052904396</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I189" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>286</v>
       </c>
@@ -7554,16 +6968,13 @@
         <v>0.87874126341838599</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I190" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>287</v>
       </c>
@@ -7583,16 +6994,13 @@
         <v>0.90689897334715597</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I191" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>288</v>
       </c>
@@ -7612,16 +7020,13 @@
         <v>0.83362873290305295</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I192" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>289</v>
       </c>
@@ -7646,11 +7051,8 @@
       <c r="H193" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I193" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>290</v>
       </c>
@@ -7670,16 +7072,13 @@
         <v>0.876032505099823</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>291</v>
       </c>
@@ -7704,11 +7103,8 @@
       <c r="H195" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>292</v>
       </c>
@@ -7728,16 +7124,13 @@
         <v>0.97217670467845996</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I196" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>293</v>
       </c>
@@ -7757,16 +7150,13 @@
         <v>0.97705915794401899</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I197" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>294</v>
       </c>
@@ -7786,16 +7176,13 @@
         <v>0.96903320737049803</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I198" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>295</v>
       </c>
@@ -7820,11 +7207,8 @@
       <c r="H199" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>296</v>
       </c>
@@ -7844,16 +7228,13 @@
         <v>0.95247968431261099</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I200" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>297</v>
       </c>
@@ -7873,16 +7254,13 @@
         <v>0.95338260375213202</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I201" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>298</v>
       </c>
@@ -7902,16 +7280,13 @@
         <v>0.89375647928301505</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I202" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>299</v>
       </c>
@@ -7931,16 +7306,13 @@
         <v>0.93315052001471399</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>300</v>
       </c>
@@ -7960,16 +7332,13 @@
         <v>0.89114804534662095</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I204" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>301</v>
       </c>
@@ -7989,16 +7358,13 @@
         <v>0.82620472862254601</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I205" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>20</v>
       </c>
@@ -8023,11 +7389,8 @@
       <c r="H206" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I206" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>22</v>
       </c>
@@ -8052,11 +7415,8 @@
       <c r="H207" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I207" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>24</v>
       </c>
@@ -8081,11 +7441,8 @@
       <c r="H208" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I208" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>302</v>
       </c>
@@ -8105,16 +7462,13 @@
         <v>0.82272681670735404</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I209" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>48</v>
       </c>
@@ -8139,11 +7493,8 @@
       <c r="H210" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I210" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>49</v>
       </c>
@@ -8168,11 +7519,8 @@
       <c r="H211" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I211" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>26</v>
       </c>
@@ -8197,11 +7545,8 @@
       <c r="H212" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I212" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>28</v>
       </c>
@@ -8226,11 +7571,8 @@
       <c r="H213" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>50</v>
       </c>
@@ -8255,11 +7597,8 @@
       <c r="H214" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I214" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>30</v>
       </c>
@@ -8284,11 +7623,8 @@
       <c r="H215" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I215" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>51</v>
       </c>
@@ -8313,11 +7649,8 @@
       <c r="H216" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I216" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>52</v>
       </c>
@@ -8342,11 +7675,8 @@
       <c r="H217" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I217" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>53</v>
       </c>
@@ -8371,11 +7701,8 @@
       <c r="H218" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I218" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>54</v>
       </c>
@@ -8400,11 +7727,8 @@
       <c r="H219" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I219" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>55</v>
       </c>
@@ -8429,11 +7753,8 @@
       <c r="H220" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I220" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>56</v>
       </c>
@@ -8458,11 +7779,8 @@
       <c r="H221" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I221" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>57</v>
       </c>
@@ -8487,11 +7805,8 @@
       <c r="H222" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I222" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>32</v>
       </c>
@@ -8516,11 +7831,8 @@
       <c r="H223" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I223" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>34</v>
       </c>
@@ -8545,11 +7857,8 @@
       <c r="H224" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I224" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>58</v>
       </c>
@@ -8574,11 +7883,8 @@
       <c r="H225" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I225" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>59</v>
       </c>
@@ -8603,11 +7909,8 @@
       <c r="H226" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I226" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>36</v>
       </c>
@@ -8632,11 +7935,8 @@
       <c r="H227" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I227" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>38</v>
       </c>
@@ -8661,11 +7961,8 @@
       <c r="H228" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I228" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>40</v>
       </c>
@@ -8690,11 +7987,8 @@
       <c r="H229" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I229" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>42</v>
       </c>
@@ -8719,11 +8013,8 @@
       <c r="H230" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I230" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>44</v>
       </c>
@@ -8748,11 +8039,8 @@
       <c r="H231" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I231" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>46</v>
       </c>
@@ -8777,11 +8065,8 @@
       <c r="H232" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I232" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>83</v>
       </c>
@@ -8801,13 +8086,10 @@
         <v>0.89205096478614199</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="I233" s="4" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -8824,19 +8106,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="17"/>
+    <col min="5" max="5" width="10.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -8866,7 +8148,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>289</v>
       </c>
@@ -8896,7 +8178,7 @@
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
@@ -8926,7 +8208,7 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>176</v>
       </c>
@@ -8956,7 +8238,7 @@
       </c>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>197</v>
       </c>
@@ -8986,7 +8268,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>174</v>
       </c>
@@ -9016,7 +8298,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>199</v>
       </c>
@@ -9046,7 +8328,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>202</v>
       </c>
@@ -9076,7 +8358,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -9088,7 +8370,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -9100,7 +8382,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -9112,7 +8394,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -9124,7 +8406,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -9136,7 +8418,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -9148,7 +8430,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -9160,7 +8442,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -9172,7 +8454,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
@@ -9184,7 +8466,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -9196,7 +8478,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
@@ -9208,7 +8490,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
@@ -9220,7 +8502,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
@@ -9232,7 +8514,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
@@ -9244,7 +8526,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="8"/>
@@ -9256,7 +8538,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="8"/>
@@ -9268,7 +8550,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -9297,22 +8579,22 @@
       <selection pane="topRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="9.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="22.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -9353,10 +8635,10 @@
         <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -9395,10 +8677,10 @@
         <v>0.99541851988094843</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -9437,10 +8719,10 @@
         <v>0.99595358325251648</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -9479,10 +8761,10 @@
         <v>0.99595358325251648</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
@@ -9521,10 +8803,10 @@
         <v>0.97766110423703312</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -9563,10 +8845,10 @@
         <v>0.99592014179179345</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -9605,10 +8887,10 @@
         <v>0.99595358325251648</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -9647,10 +8929,10 @@
         <v>0.98575393773200015</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -9689,10 +8971,10 @@
         <v>0.99595358325251648</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -9733,10 +9015,10 @@
         <v>0.99595358325251648</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -9775,10 +9057,10 @@
         <v>0.98578737919272319</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -9814,10 +9096,10 @@
         <v>0.97545396782931482</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -9854,10 +9136,10 @@
         <v>0.98294485503126772</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -9896,10 +9178,10 @@
         <v>0.98575393773200015</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
@@ -9938,10 +9220,10 @@
         <v>0.9678627562451928</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
@@ -9978,10 +9260,10 @@
         <v>0.96782931478446976</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
@@ -10020,10 +9302,10 @@
         <v>0.96722736849145574</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
@@ -10060,10 +9342,10 @@
         <v>0.9591345349964886</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
@@ -10102,10 +9384,10 @@
         <v>0.96809684647025385</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>36</v>
       </c>
@@ -10142,10 +9424,10 @@
         <v>0.9201752332541886</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -10181,10 +9463,10 @@
         <v>0.96756178309868579</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -10220,10 +9502,10 @@
         <v>0.97595558974015983</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -10259,10 +9541,10 @@
         <v>0.9679630806273618</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -10298,10 +9580,10 @@
         <v>0.98438283784235692</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -10339,76 +9621,76 @@
         <v>0.94110958766678932</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
@@ -10425,26 +9707,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7C4D73-0FFB-4721-A60C-5E6ACCB42FC4}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="7" customWidth="1"/>
     <col min="2" max="2" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="10.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
@@ -10488,7 +9770,7 @@
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>79</v>
       </c>
@@ -10530,7 +9812,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>80</v>
       </c>
@@ -10570,7 +9852,7 @@
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -10614,7 +9896,7 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
@@ -10656,7 +9938,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>82</v>
       </c>
@@ -10698,7 +9980,7 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>60</v>
       </c>
@@ -10738,7 +10020,7 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -10780,7 +10062,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -10822,7 +10104,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -10864,7 +10146,7 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
@@ -10906,7 +10188,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
@@ -10947,7 +10229,7 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>83</v>
       </c>
@@ -10986,7 +10268,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -11023,7 +10305,7 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -11060,7 +10342,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
@@ -11097,7 +10379,7 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -11134,7 +10416,7 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -11171,7 +10453,7 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
@@ -11208,7 +10490,7 @@
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>67</v>
       </c>
@@ -11245,7 +10527,7 @@
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -11282,7 +10564,7 @@
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
@@ -11319,7 +10601,7 @@
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
@@ -11356,7 +10638,7 @@
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G24" s="4"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -11369,7 +10651,7 @@
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -11381,7 +10663,7 @@
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -11393,7 +10675,7 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N27" s="14"/>
       <c r="O27" s="15"/>
       <c r="P27" s="16"/>
@@ -11401,7 +10683,7 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N28" s="14"/>
       <c r="O28" s="15"/>
       <c r="P28" s="16"/>
@@ -11409,7 +10691,7 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N29" s="14"/>
       <c r="O29" s="15"/>
       <c r="P29" s="16"/>
@@ -11417,7 +10699,7 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N30" s="14"/>
       <c r="O30" s="15"/>
       <c r="P30" s="16"/>
@@ -11425,7 +10707,7 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
